--- a/trunk/1. Project management/12. Daily report/tong hop/sprint 4/AS_PM_DailyMeeting012-5.xlsx
+++ b/trunk/1. Project management/12. Daily report/tong hop/sprint 4/AS_PM_DailyMeeting012-5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
   <si>
     <t>Chau Le</t>
   </si>
@@ -143,6 +143,69 @@
   </si>
   <si>
     <t>Report date: 12/5/2014</t>
+  </si>
+  <si>
+    <t>Implement - View Q/A on android</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Test - Delete Q/A</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Web service - Search Q/A on Android</t>
+  </si>
+  <si>
+    <t>On-going</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Deploy-Android's DDS</t>
+  </si>
+  <si>
+    <t>Deploy-Android's DMS</t>
+  </si>
+  <si>
+    <t>Implement - Send mail on android</t>
+  </si>
+  <si>
+    <t>Prototype Android DMS application</t>
+  </si>
+  <si>
+    <t>Implement - Show Q/A on android</t>
+  </si>
+  <si>
+    <t>Web service - Save Q/A on android</t>
+  </si>
+  <si>
+    <t>Test - Save Q/A on android</t>
+  </si>
+  <si>
+    <t>Implement - Save Q/A on android</t>
+  </si>
+  <si>
+    <t>Implement -Delete Q/A</t>
+  </si>
+  <si>
+    <t>Implement - Create question</t>
+  </si>
+  <si>
+    <t>Web service - send mail on android</t>
+  </si>
+  <si>
+    <t>Medim</t>
+  </si>
+  <si>
+    <t>Implement - Search Q/A on Android</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1195,9 +1258,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1314,11 +1374,113 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1331,123 +1493,280 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="201">
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0099"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="3"/>
@@ -3077,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3726,16 +4045,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3750,10 +4069,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -3765,10 +4084,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3789,17 +4108,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3844,10 +4163,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -3856,13 +4175,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="B10" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3871,13 +4200,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="B11" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="18" t="s">
         <v>0</v>
       </c>
@@ -3886,13 +4225,23 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3900,13 +4249,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="107"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -3936,19 +4285,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -3957,21 +4306,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3983,8 +4332,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3996,8 +4345,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -4009,8 +4358,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -4046,44 +4395,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="144"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -4113,19 +4462,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -4134,13 +4483,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4171,41 +4520,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4256,15 +4605,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -4278,92 +4624,95 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="173" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="170" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="19" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="20" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="167" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="194" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="193" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="192" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="191" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="190" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="189" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="161" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="188" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="187" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="186" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="185" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="184" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="183" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="155" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="182" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="181" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="180" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="179" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="178" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="177" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4400,7 +4749,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5048,16 +5397,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5072,10 +5421,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -5087,10 +5436,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5111,17 +5460,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5166,10 +5515,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -5178,13 +5527,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="B10" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>1</v>
       </c>
@@ -5193,13 +5552,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="18" t="s">
         <v>1</v>
       </c>
@@ -5208,13 +5577,23 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5222,13 +5601,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="67"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="107"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -5258,19 +5637,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -5282,10 +5661,10 @@
       <c r="B17" s="68"/>
       <c r="C17" s="69"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5318,8 +5697,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -5331,8 +5710,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5368,44 +5747,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="144"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5435,19 +5814,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -5456,13 +5835,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5493,41 +5872,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5578,15 +5957,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5597,134 +5973,148 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="149" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="43" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="44" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="45" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="146" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="173" priority="40" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="41" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13">
-    <cfRule type="containsText" dxfId="143" priority="25" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="170" priority="34" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="26" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="169" priority="35" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="27" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="168" priority="36" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="28" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="167" priority="37" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="29" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="166" priority="38" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="30" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="165" priority="39" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="137" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="164" priority="28" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="163" priority="29" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="162" priority="30" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="161" priority="31" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="160" priority="32" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="159" priority="33" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="131" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="158" priority="22" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="157" priority="23" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="156" priority="24" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="155" priority="25" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="154" priority="26" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="153" priority="27" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="containsText" dxfId="149" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"On-hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"On-going"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="125" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="containsText" dxfId="122" priority="4" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="5" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="6" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="7" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="8" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="9" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="116" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5767,7 +6157,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6415,16 +6805,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6439,10 +6829,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -6454,10 +6844,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6478,17 +6868,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6533,10 +6923,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -6545,13 +6935,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="B10" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>2</v>
       </c>
@@ -6560,13 +6960,13 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6575,41 +6975,41 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="17"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>4</v>
       </c>
-      <c r="B13" s="96"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <v>6</v>
       </c>
-      <c r="B14" s="111"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="113"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="99"/>
+      <c r="H15" s="98"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6630,19 +7030,19 @@
       <c r="A19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="125"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
       <c r="I19" s="39" t="s">
         <v>16</v>
       </c>
@@ -6651,21 +7051,21 @@
       <c r="A20" s="40">
         <v>1</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="130"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="145"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="21"/>
       <c r="E21" s="41"/>
       <c r="F21" s="42"/>
@@ -6677,34 +7077,34 @@
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>4</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43">
         <v>5</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="29"/>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
@@ -6740,44 +7140,44 @@
       <c r="A27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="156" t="s">
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="94"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="87"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48">
         <v>2</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="77"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -6807,19 +7207,19 @@
       <c r="A32" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="51" t="s">
         <v>16</v>
       </c>
@@ -6828,26 +7228,26 @@
       <c r="A33" s="13">
         <v>1</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="52"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>2</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6898,11 +7298,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G10:H10"/>
@@ -6916,97 +7311,102 @@
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="113" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F14">
-    <cfRule type="cellIs" dxfId="110" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="22" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="23" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I14">
-    <cfRule type="containsText" dxfId="107" priority="16" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="134" priority="16" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="17" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="133" priority="17" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="18" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="132" priority="18" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="19" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="131" priority="19" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="20" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="130" priority="20" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="21" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="129" priority="21" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I24">
-    <cfRule type="containsText" dxfId="101" priority="10" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="128" priority="10" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="11" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="127" priority="11" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="12" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="126" priority="12" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="13" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="125" priority="13" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="14" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="124" priority="14" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="15" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="123" priority="15" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="95" priority="4" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="122" priority="4" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="5" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="121" priority="5" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="6" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="120" priority="6" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="7" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="119" priority="7" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="8" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="118" priority="8" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="9" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="117" priority="9" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="1" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="2" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7043,7 +7443,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7691,16 +8091,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7715,10 +8115,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -7730,10 +8130,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7754,17 +8154,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7809,10 +8209,10 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -7821,13 +8221,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="B10" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>3</v>
       </c>
@@ -7836,27 +8246,51 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41917</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41917</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
@@ -7899,19 +8333,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -7920,21 +8354,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7946,8 +8380,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7959,8 +8393,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7972,8 +8406,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8009,44 +8443,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="144"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -8076,19 +8510,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -8097,13 +8531,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8134,41 +8568,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8219,15 +8653,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -8241,103 +8672,117 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="86" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="34" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" dxfId="83" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F12:F13">
+    <cfRule type="cellIs" dxfId="110" priority="31" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="32" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="80" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="107" priority="25" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="106" priority="26" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="105" priority="27" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="104" priority="28" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="103" priority="29" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="102" priority="30" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="containsText" dxfId="74" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="101" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="100" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="99" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="98" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="97" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="96" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="68" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="95" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="94" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="93" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="92" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="91" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="90" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"On-hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"On-going"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8374,7 +8819,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="I13" sqref="B10:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9022,16 +9467,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9046,10 +9491,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -9061,10 +9506,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9085,17 +9530,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -9140,25 +9585,35 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="B10" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>4</v>
       </c>
@@ -9167,13 +9622,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="B11" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="18" t="s">
         <v>4</v>
       </c>
@@ -9182,27 +9647,51 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>4</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
+      <c r="B13" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E13" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
@@ -9232,19 +9721,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -9253,21 +9742,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -9279,8 +9768,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -9292,8 +9781,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -9305,8 +9794,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -9342,44 +9831,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="144"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9409,19 +9898,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -9430,15 +9919,15 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9469,41 +9958,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9554,17 +10043,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B16:C16"/>
@@ -9576,117 +10060,122 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I13">
+    <cfRule type="containsText" dxfId="80" priority="22" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="23" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="24" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="25" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="26" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="27" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="containsText" dxfId="74" priority="16" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="17" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="18" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="19" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="20" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="21" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="68" priority="10" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="11" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="12" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="13" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="14" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="15" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I19">
+    <cfRule type="containsText" dxfId="62" priority="4" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="5" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="6" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="7" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="8" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="9" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="53" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21">
-    <cfRule type="containsText" dxfId="47" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="41" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I19">
-    <cfRule type="containsText" dxfId="35" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 WVN983050:WVN983053">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983050:WVN983053 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 F10:F13">
       <formula1>"On-hold, On-going, Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983052:WVK983053 IY12:IY13 SU12:SU13 ACQ12:ACQ13 AMM12:AMM13 AWI12:AWI13 BGE12:BGE13 BQA12:BQA13 BZW12:BZW13 CJS12:CJS13 CTO12:CTO13 DDK12:DDK13 DNG12:DNG13 DXC12:DXC13 EGY12:EGY13 EQU12:EQU13 FAQ12:FAQ13 FKM12:FKM13 FUI12:FUI13 GEE12:GEE13 GOA12:GOA13 GXW12:GXW13 HHS12:HHS13 HRO12:HRO13 IBK12:IBK13 ILG12:ILG13 IVC12:IVC13 JEY12:JEY13 JOU12:JOU13 JYQ12:JYQ13 KIM12:KIM13 KSI12:KSI13 LCE12:LCE13 LMA12:LMA13 LVW12:LVW13 MFS12:MFS13 MPO12:MPO13 MZK12:MZK13 NJG12:NJG13 NTC12:NTC13 OCY12:OCY13 OMU12:OMU13 OWQ12:OWQ13 PGM12:PGM13 PQI12:PQI13 QAE12:QAE13 QKA12:QKA13 QTW12:QTW13 RDS12:RDS13 RNO12:RNO13 RXK12:RXK13 SHG12:SHG13 SRC12:SRC13 TAY12:TAY13 TKU12:TKU13 TUQ12:TUQ13 UEM12:UEM13 UOI12:UOI13 UYE12:UYE13 VIA12:VIA13 VRW12:VRW13 WBS12:WBS13 WLO12:WLO13 WVK12:WVK13 C65548:C65549 IY65548:IY65549 SU65548:SU65549 ACQ65548:ACQ65549 AMM65548:AMM65549 AWI65548:AWI65549 BGE65548:BGE65549 BQA65548:BQA65549 BZW65548:BZW65549 CJS65548:CJS65549 CTO65548:CTO65549 DDK65548:DDK65549 DNG65548:DNG65549 DXC65548:DXC65549 EGY65548:EGY65549 EQU65548:EQU65549 FAQ65548:FAQ65549 FKM65548:FKM65549 FUI65548:FUI65549 GEE65548:GEE65549 GOA65548:GOA65549 GXW65548:GXW65549 HHS65548:HHS65549 HRO65548:HRO65549 IBK65548:IBK65549 ILG65548:ILG65549 IVC65548:IVC65549 JEY65548:JEY65549 JOU65548:JOU65549 JYQ65548:JYQ65549 KIM65548:KIM65549 KSI65548:KSI65549 LCE65548:LCE65549 LMA65548:LMA65549 LVW65548:LVW65549 MFS65548:MFS65549 MPO65548:MPO65549 MZK65548:MZK65549 NJG65548:NJG65549 NTC65548:NTC65549 OCY65548:OCY65549 OMU65548:OMU65549 OWQ65548:OWQ65549 PGM65548:PGM65549 PQI65548:PQI65549 QAE65548:QAE65549 QKA65548:QKA65549 QTW65548:QTW65549 RDS65548:RDS65549 RNO65548:RNO65549 RXK65548:RXK65549 SHG65548:SHG65549 SRC65548:SRC65549 TAY65548:TAY65549 TKU65548:TKU65549 TUQ65548:TUQ65549 UEM65548:UEM65549 UOI65548:UOI65549 UYE65548:UYE65549 VIA65548:VIA65549 VRW65548:VRW65549 WBS65548:WBS65549 WLO65548:WLO65549 WVK65548:WVK65549 C131084:C131085 IY131084:IY131085 SU131084:SU131085 ACQ131084:ACQ131085 AMM131084:AMM131085 AWI131084:AWI131085 BGE131084:BGE131085 BQA131084:BQA131085 BZW131084:BZW131085 CJS131084:CJS131085 CTO131084:CTO131085 DDK131084:DDK131085 DNG131084:DNG131085 DXC131084:DXC131085 EGY131084:EGY131085 EQU131084:EQU131085 FAQ131084:FAQ131085 FKM131084:FKM131085 FUI131084:FUI131085 GEE131084:GEE131085 GOA131084:GOA131085 GXW131084:GXW131085 HHS131084:HHS131085 HRO131084:HRO131085 IBK131084:IBK131085 ILG131084:ILG131085 IVC131084:IVC131085 JEY131084:JEY131085 JOU131084:JOU131085 JYQ131084:JYQ131085 KIM131084:KIM131085 KSI131084:KSI131085 LCE131084:LCE131085 LMA131084:LMA131085 LVW131084:LVW131085 MFS131084:MFS131085 MPO131084:MPO131085 MZK131084:MZK131085 NJG131084:NJG131085 NTC131084:NTC131085 OCY131084:OCY131085 OMU131084:OMU131085 OWQ131084:OWQ131085 PGM131084:PGM131085 PQI131084:PQI131085 QAE131084:QAE131085 QKA131084:QKA131085 QTW131084:QTW131085 RDS131084:RDS131085 RNO131084:RNO131085 RXK131084:RXK131085 SHG131084:SHG131085 SRC131084:SRC131085 TAY131084:TAY131085 TKU131084:TKU131085 TUQ131084:TUQ131085 UEM131084:UEM131085 UOI131084:UOI131085 UYE131084:UYE131085 VIA131084:VIA131085 VRW131084:VRW131085 WBS131084:WBS131085 WLO131084:WLO131085 WVK131084:WVK131085 C196620:C196621 IY196620:IY196621 SU196620:SU196621 ACQ196620:ACQ196621 AMM196620:AMM196621 AWI196620:AWI196621 BGE196620:BGE196621 BQA196620:BQA196621 BZW196620:BZW196621 CJS196620:CJS196621 CTO196620:CTO196621 DDK196620:DDK196621 DNG196620:DNG196621 DXC196620:DXC196621 EGY196620:EGY196621 EQU196620:EQU196621 FAQ196620:FAQ196621 FKM196620:FKM196621 FUI196620:FUI196621 GEE196620:GEE196621 GOA196620:GOA196621 GXW196620:GXW196621 HHS196620:HHS196621 HRO196620:HRO196621 IBK196620:IBK196621 ILG196620:ILG196621 IVC196620:IVC196621 JEY196620:JEY196621 JOU196620:JOU196621 JYQ196620:JYQ196621 KIM196620:KIM196621 KSI196620:KSI196621 LCE196620:LCE196621 LMA196620:LMA196621 LVW196620:LVW196621 MFS196620:MFS196621 MPO196620:MPO196621 MZK196620:MZK196621 NJG196620:NJG196621 NTC196620:NTC196621 OCY196620:OCY196621 OMU196620:OMU196621 OWQ196620:OWQ196621 PGM196620:PGM196621 PQI196620:PQI196621 QAE196620:QAE196621 QKA196620:QKA196621 QTW196620:QTW196621 RDS196620:RDS196621 RNO196620:RNO196621 RXK196620:RXK196621 SHG196620:SHG196621 SRC196620:SRC196621 TAY196620:TAY196621 TKU196620:TKU196621 TUQ196620:TUQ196621 UEM196620:UEM196621 UOI196620:UOI196621 UYE196620:UYE196621 VIA196620:VIA196621 VRW196620:VRW196621 WBS196620:WBS196621 WLO196620:WLO196621 WVK196620:WVK196621 C262156:C262157 IY262156:IY262157 SU262156:SU262157 ACQ262156:ACQ262157 AMM262156:AMM262157 AWI262156:AWI262157 BGE262156:BGE262157 BQA262156:BQA262157 BZW262156:BZW262157 CJS262156:CJS262157 CTO262156:CTO262157 DDK262156:DDK262157 DNG262156:DNG262157 DXC262156:DXC262157 EGY262156:EGY262157 EQU262156:EQU262157 FAQ262156:FAQ262157 FKM262156:FKM262157 FUI262156:FUI262157 GEE262156:GEE262157 GOA262156:GOA262157 GXW262156:GXW262157 HHS262156:HHS262157 HRO262156:HRO262157 IBK262156:IBK262157 ILG262156:ILG262157 IVC262156:IVC262157 JEY262156:JEY262157 JOU262156:JOU262157 JYQ262156:JYQ262157 KIM262156:KIM262157 KSI262156:KSI262157 LCE262156:LCE262157 LMA262156:LMA262157 LVW262156:LVW262157 MFS262156:MFS262157 MPO262156:MPO262157 MZK262156:MZK262157 NJG262156:NJG262157 NTC262156:NTC262157 OCY262156:OCY262157 OMU262156:OMU262157 OWQ262156:OWQ262157 PGM262156:PGM262157 PQI262156:PQI262157 QAE262156:QAE262157 QKA262156:QKA262157 QTW262156:QTW262157 RDS262156:RDS262157 RNO262156:RNO262157 RXK262156:RXK262157 SHG262156:SHG262157 SRC262156:SRC262157 TAY262156:TAY262157 TKU262156:TKU262157 TUQ262156:TUQ262157 UEM262156:UEM262157 UOI262156:UOI262157 UYE262156:UYE262157 VIA262156:VIA262157 VRW262156:VRW262157 WBS262156:WBS262157 WLO262156:WLO262157 WVK262156:WVK262157 C327692:C327693 IY327692:IY327693 SU327692:SU327693 ACQ327692:ACQ327693 AMM327692:AMM327693 AWI327692:AWI327693 BGE327692:BGE327693 BQA327692:BQA327693 BZW327692:BZW327693 CJS327692:CJS327693 CTO327692:CTO327693 DDK327692:DDK327693 DNG327692:DNG327693 DXC327692:DXC327693 EGY327692:EGY327693 EQU327692:EQU327693 FAQ327692:FAQ327693 FKM327692:FKM327693 FUI327692:FUI327693 GEE327692:GEE327693 GOA327692:GOA327693 GXW327692:GXW327693 HHS327692:HHS327693 HRO327692:HRO327693 IBK327692:IBK327693 ILG327692:ILG327693 IVC327692:IVC327693 JEY327692:JEY327693 JOU327692:JOU327693 JYQ327692:JYQ327693 KIM327692:KIM327693 KSI327692:KSI327693 LCE327692:LCE327693 LMA327692:LMA327693 LVW327692:LVW327693 MFS327692:MFS327693 MPO327692:MPO327693 MZK327692:MZK327693 NJG327692:NJG327693 NTC327692:NTC327693 OCY327692:OCY327693 OMU327692:OMU327693 OWQ327692:OWQ327693 PGM327692:PGM327693 PQI327692:PQI327693 QAE327692:QAE327693 QKA327692:QKA327693 QTW327692:QTW327693 RDS327692:RDS327693 RNO327692:RNO327693 RXK327692:RXK327693 SHG327692:SHG327693 SRC327692:SRC327693 TAY327692:TAY327693 TKU327692:TKU327693 TUQ327692:TUQ327693 UEM327692:UEM327693 UOI327692:UOI327693 UYE327692:UYE327693 VIA327692:VIA327693 VRW327692:VRW327693 WBS327692:WBS327693 WLO327692:WLO327693 WVK327692:WVK327693 C393228:C393229 IY393228:IY393229 SU393228:SU393229 ACQ393228:ACQ393229 AMM393228:AMM393229 AWI393228:AWI393229 BGE393228:BGE393229 BQA393228:BQA393229 BZW393228:BZW393229 CJS393228:CJS393229 CTO393228:CTO393229 DDK393228:DDK393229 DNG393228:DNG393229 DXC393228:DXC393229 EGY393228:EGY393229 EQU393228:EQU393229 FAQ393228:FAQ393229 FKM393228:FKM393229 FUI393228:FUI393229 GEE393228:GEE393229 GOA393228:GOA393229 GXW393228:GXW393229 HHS393228:HHS393229 HRO393228:HRO393229 IBK393228:IBK393229 ILG393228:ILG393229 IVC393228:IVC393229 JEY393228:JEY393229 JOU393228:JOU393229 JYQ393228:JYQ393229 KIM393228:KIM393229 KSI393228:KSI393229 LCE393228:LCE393229 LMA393228:LMA393229 LVW393228:LVW393229 MFS393228:MFS393229 MPO393228:MPO393229 MZK393228:MZK393229 NJG393228:NJG393229 NTC393228:NTC393229 OCY393228:OCY393229 OMU393228:OMU393229 OWQ393228:OWQ393229 PGM393228:PGM393229 PQI393228:PQI393229 QAE393228:QAE393229 QKA393228:QKA393229 QTW393228:QTW393229 RDS393228:RDS393229 RNO393228:RNO393229 RXK393228:RXK393229 SHG393228:SHG393229 SRC393228:SRC393229 TAY393228:TAY393229 TKU393228:TKU393229 TUQ393228:TUQ393229 UEM393228:UEM393229 UOI393228:UOI393229 UYE393228:UYE393229 VIA393228:VIA393229 VRW393228:VRW393229 WBS393228:WBS393229 WLO393228:WLO393229 WVK393228:WVK393229 C458764:C458765 IY458764:IY458765 SU458764:SU458765 ACQ458764:ACQ458765 AMM458764:AMM458765 AWI458764:AWI458765 BGE458764:BGE458765 BQA458764:BQA458765 BZW458764:BZW458765 CJS458764:CJS458765 CTO458764:CTO458765 DDK458764:DDK458765 DNG458764:DNG458765 DXC458764:DXC458765 EGY458764:EGY458765 EQU458764:EQU458765 FAQ458764:FAQ458765 FKM458764:FKM458765 FUI458764:FUI458765 GEE458764:GEE458765 GOA458764:GOA458765 GXW458764:GXW458765 HHS458764:HHS458765 HRO458764:HRO458765 IBK458764:IBK458765 ILG458764:ILG458765 IVC458764:IVC458765 JEY458764:JEY458765 JOU458764:JOU458765 JYQ458764:JYQ458765 KIM458764:KIM458765 KSI458764:KSI458765 LCE458764:LCE458765 LMA458764:LMA458765 LVW458764:LVW458765 MFS458764:MFS458765 MPO458764:MPO458765 MZK458764:MZK458765 NJG458764:NJG458765 NTC458764:NTC458765 OCY458764:OCY458765 OMU458764:OMU458765 OWQ458764:OWQ458765 PGM458764:PGM458765 PQI458764:PQI458765 QAE458764:QAE458765 QKA458764:QKA458765 QTW458764:QTW458765 RDS458764:RDS458765 RNO458764:RNO458765 RXK458764:RXK458765 SHG458764:SHG458765 SRC458764:SRC458765 TAY458764:TAY458765 TKU458764:TKU458765 TUQ458764:TUQ458765 UEM458764:UEM458765 UOI458764:UOI458765 UYE458764:UYE458765 VIA458764:VIA458765 VRW458764:VRW458765 WBS458764:WBS458765 WLO458764:WLO458765 WVK458764:WVK458765 C524300:C524301 IY524300:IY524301 SU524300:SU524301 ACQ524300:ACQ524301 AMM524300:AMM524301 AWI524300:AWI524301 BGE524300:BGE524301 BQA524300:BQA524301 BZW524300:BZW524301 CJS524300:CJS524301 CTO524300:CTO524301 DDK524300:DDK524301 DNG524300:DNG524301 DXC524300:DXC524301 EGY524300:EGY524301 EQU524300:EQU524301 FAQ524300:FAQ524301 FKM524300:FKM524301 FUI524300:FUI524301 GEE524300:GEE524301 GOA524300:GOA524301 GXW524300:GXW524301 HHS524300:HHS524301 HRO524300:HRO524301 IBK524300:IBK524301 ILG524300:ILG524301 IVC524300:IVC524301 JEY524300:JEY524301 JOU524300:JOU524301 JYQ524300:JYQ524301 KIM524300:KIM524301 KSI524300:KSI524301 LCE524300:LCE524301 LMA524300:LMA524301 LVW524300:LVW524301 MFS524300:MFS524301 MPO524300:MPO524301 MZK524300:MZK524301 NJG524300:NJG524301 NTC524300:NTC524301 OCY524300:OCY524301 OMU524300:OMU524301 OWQ524300:OWQ524301 PGM524300:PGM524301 PQI524300:PQI524301 QAE524300:QAE524301 QKA524300:QKA524301 QTW524300:QTW524301 RDS524300:RDS524301 RNO524300:RNO524301 RXK524300:RXK524301 SHG524300:SHG524301 SRC524300:SRC524301 TAY524300:TAY524301 TKU524300:TKU524301 TUQ524300:TUQ524301 UEM524300:UEM524301 UOI524300:UOI524301 UYE524300:UYE524301 VIA524300:VIA524301 VRW524300:VRW524301 WBS524300:WBS524301 WLO524300:WLO524301 WVK524300:WVK524301 C589836:C589837 IY589836:IY589837 SU589836:SU589837 ACQ589836:ACQ589837 AMM589836:AMM589837 AWI589836:AWI589837 BGE589836:BGE589837 BQA589836:BQA589837 BZW589836:BZW589837 CJS589836:CJS589837 CTO589836:CTO589837 DDK589836:DDK589837 DNG589836:DNG589837 DXC589836:DXC589837 EGY589836:EGY589837 EQU589836:EQU589837 FAQ589836:FAQ589837 FKM589836:FKM589837 FUI589836:FUI589837 GEE589836:GEE589837 GOA589836:GOA589837 GXW589836:GXW589837 HHS589836:HHS589837 HRO589836:HRO589837 IBK589836:IBK589837 ILG589836:ILG589837 IVC589836:IVC589837 JEY589836:JEY589837 JOU589836:JOU589837 JYQ589836:JYQ589837 KIM589836:KIM589837 KSI589836:KSI589837 LCE589836:LCE589837 LMA589836:LMA589837 LVW589836:LVW589837 MFS589836:MFS589837 MPO589836:MPO589837 MZK589836:MZK589837 NJG589836:NJG589837 NTC589836:NTC589837 OCY589836:OCY589837 OMU589836:OMU589837 OWQ589836:OWQ589837 PGM589836:PGM589837 PQI589836:PQI589837 QAE589836:QAE589837 QKA589836:QKA589837 QTW589836:QTW589837 RDS589836:RDS589837 RNO589836:RNO589837 RXK589836:RXK589837 SHG589836:SHG589837 SRC589836:SRC589837 TAY589836:TAY589837 TKU589836:TKU589837 TUQ589836:TUQ589837 UEM589836:UEM589837 UOI589836:UOI589837 UYE589836:UYE589837 VIA589836:VIA589837 VRW589836:VRW589837 WBS589836:WBS589837 WLO589836:WLO589837 WVK589836:WVK589837 C655372:C655373 IY655372:IY655373 SU655372:SU655373 ACQ655372:ACQ655373 AMM655372:AMM655373 AWI655372:AWI655373 BGE655372:BGE655373 BQA655372:BQA655373 BZW655372:BZW655373 CJS655372:CJS655373 CTO655372:CTO655373 DDK655372:DDK655373 DNG655372:DNG655373 DXC655372:DXC655373 EGY655372:EGY655373 EQU655372:EQU655373 FAQ655372:FAQ655373 FKM655372:FKM655373 FUI655372:FUI655373 GEE655372:GEE655373 GOA655372:GOA655373 GXW655372:GXW655373 HHS655372:HHS655373 HRO655372:HRO655373 IBK655372:IBK655373 ILG655372:ILG655373 IVC655372:IVC655373 JEY655372:JEY655373 JOU655372:JOU655373 JYQ655372:JYQ655373 KIM655372:KIM655373 KSI655372:KSI655373 LCE655372:LCE655373 LMA655372:LMA655373 LVW655372:LVW655373 MFS655372:MFS655373 MPO655372:MPO655373 MZK655372:MZK655373 NJG655372:NJG655373 NTC655372:NTC655373 OCY655372:OCY655373 OMU655372:OMU655373 OWQ655372:OWQ655373 PGM655372:PGM655373 PQI655372:PQI655373 QAE655372:QAE655373 QKA655372:QKA655373 QTW655372:QTW655373 RDS655372:RDS655373 RNO655372:RNO655373 RXK655372:RXK655373 SHG655372:SHG655373 SRC655372:SRC655373 TAY655372:TAY655373 TKU655372:TKU655373 TUQ655372:TUQ655373 UEM655372:UEM655373 UOI655372:UOI655373 UYE655372:UYE655373 VIA655372:VIA655373 VRW655372:VRW655373 WBS655372:WBS655373 WLO655372:WLO655373 WVK655372:WVK655373 C720908:C720909 IY720908:IY720909 SU720908:SU720909 ACQ720908:ACQ720909 AMM720908:AMM720909 AWI720908:AWI720909 BGE720908:BGE720909 BQA720908:BQA720909 BZW720908:BZW720909 CJS720908:CJS720909 CTO720908:CTO720909 DDK720908:DDK720909 DNG720908:DNG720909 DXC720908:DXC720909 EGY720908:EGY720909 EQU720908:EQU720909 FAQ720908:FAQ720909 FKM720908:FKM720909 FUI720908:FUI720909 GEE720908:GEE720909 GOA720908:GOA720909 GXW720908:GXW720909 HHS720908:HHS720909 HRO720908:HRO720909 IBK720908:IBK720909 ILG720908:ILG720909 IVC720908:IVC720909 JEY720908:JEY720909 JOU720908:JOU720909 JYQ720908:JYQ720909 KIM720908:KIM720909 KSI720908:KSI720909 LCE720908:LCE720909 LMA720908:LMA720909 LVW720908:LVW720909 MFS720908:MFS720909 MPO720908:MPO720909 MZK720908:MZK720909 NJG720908:NJG720909 NTC720908:NTC720909 OCY720908:OCY720909 OMU720908:OMU720909 OWQ720908:OWQ720909 PGM720908:PGM720909 PQI720908:PQI720909 QAE720908:QAE720909 QKA720908:QKA720909 QTW720908:QTW720909 RDS720908:RDS720909 RNO720908:RNO720909 RXK720908:RXK720909 SHG720908:SHG720909 SRC720908:SRC720909 TAY720908:TAY720909 TKU720908:TKU720909 TUQ720908:TUQ720909 UEM720908:UEM720909 UOI720908:UOI720909 UYE720908:UYE720909 VIA720908:VIA720909 VRW720908:VRW720909 WBS720908:WBS720909 WLO720908:WLO720909 WVK720908:WVK720909 C786444:C786445 IY786444:IY786445 SU786444:SU786445 ACQ786444:ACQ786445 AMM786444:AMM786445 AWI786444:AWI786445 BGE786444:BGE786445 BQA786444:BQA786445 BZW786444:BZW786445 CJS786444:CJS786445 CTO786444:CTO786445 DDK786444:DDK786445 DNG786444:DNG786445 DXC786444:DXC786445 EGY786444:EGY786445 EQU786444:EQU786445 FAQ786444:FAQ786445 FKM786444:FKM786445 FUI786444:FUI786445 GEE786444:GEE786445 GOA786444:GOA786445 GXW786444:GXW786445 HHS786444:HHS786445 HRO786444:HRO786445 IBK786444:IBK786445 ILG786444:ILG786445 IVC786444:IVC786445 JEY786444:JEY786445 JOU786444:JOU786445 JYQ786444:JYQ786445 KIM786444:KIM786445 KSI786444:KSI786445 LCE786444:LCE786445 LMA786444:LMA786445 LVW786444:LVW786445 MFS786444:MFS786445 MPO786444:MPO786445 MZK786444:MZK786445 NJG786444:NJG786445 NTC786444:NTC786445 OCY786444:OCY786445 OMU786444:OMU786445 OWQ786444:OWQ786445 PGM786444:PGM786445 PQI786444:PQI786445 QAE786444:QAE786445 QKA786444:QKA786445 QTW786444:QTW786445 RDS786444:RDS786445 RNO786444:RNO786445 RXK786444:RXK786445 SHG786444:SHG786445 SRC786444:SRC786445 TAY786444:TAY786445 TKU786444:TKU786445 TUQ786444:TUQ786445 UEM786444:UEM786445 UOI786444:UOI786445 UYE786444:UYE786445 VIA786444:VIA786445 VRW786444:VRW786445 WBS786444:WBS786445 WLO786444:WLO786445 WVK786444:WVK786445 C851980:C851981 IY851980:IY851981 SU851980:SU851981 ACQ851980:ACQ851981 AMM851980:AMM851981 AWI851980:AWI851981 BGE851980:BGE851981 BQA851980:BQA851981 BZW851980:BZW851981 CJS851980:CJS851981 CTO851980:CTO851981 DDK851980:DDK851981 DNG851980:DNG851981 DXC851980:DXC851981 EGY851980:EGY851981 EQU851980:EQU851981 FAQ851980:FAQ851981 FKM851980:FKM851981 FUI851980:FUI851981 GEE851980:GEE851981 GOA851980:GOA851981 GXW851980:GXW851981 HHS851980:HHS851981 HRO851980:HRO851981 IBK851980:IBK851981 ILG851980:ILG851981 IVC851980:IVC851981 JEY851980:JEY851981 JOU851980:JOU851981 JYQ851980:JYQ851981 KIM851980:KIM851981 KSI851980:KSI851981 LCE851980:LCE851981 LMA851980:LMA851981 LVW851980:LVW851981 MFS851980:MFS851981 MPO851980:MPO851981 MZK851980:MZK851981 NJG851980:NJG851981 NTC851980:NTC851981 OCY851980:OCY851981 OMU851980:OMU851981 OWQ851980:OWQ851981 PGM851980:PGM851981 PQI851980:PQI851981 QAE851980:QAE851981 QKA851980:QKA851981 QTW851980:QTW851981 RDS851980:RDS851981 RNO851980:RNO851981 RXK851980:RXK851981 SHG851980:SHG851981 SRC851980:SRC851981 TAY851980:TAY851981 TKU851980:TKU851981 TUQ851980:TUQ851981 UEM851980:UEM851981 UOI851980:UOI851981 UYE851980:UYE851981 VIA851980:VIA851981 VRW851980:VRW851981 WBS851980:WBS851981 WLO851980:WLO851981 WVK851980:WVK851981 C917516:C917517 IY917516:IY917517 SU917516:SU917517 ACQ917516:ACQ917517 AMM917516:AMM917517 AWI917516:AWI917517 BGE917516:BGE917517 BQA917516:BQA917517 BZW917516:BZW917517 CJS917516:CJS917517 CTO917516:CTO917517 DDK917516:DDK917517 DNG917516:DNG917517 DXC917516:DXC917517 EGY917516:EGY917517 EQU917516:EQU917517 FAQ917516:FAQ917517 FKM917516:FKM917517 FUI917516:FUI917517 GEE917516:GEE917517 GOA917516:GOA917517 GXW917516:GXW917517 HHS917516:HHS917517 HRO917516:HRO917517 IBK917516:IBK917517 ILG917516:ILG917517 IVC917516:IVC917517 JEY917516:JEY917517 JOU917516:JOU917517 JYQ917516:JYQ917517 KIM917516:KIM917517 KSI917516:KSI917517 LCE917516:LCE917517 LMA917516:LMA917517 LVW917516:LVW917517 MFS917516:MFS917517 MPO917516:MPO917517 MZK917516:MZK917517 NJG917516:NJG917517 NTC917516:NTC917517 OCY917516:OCY917517 OMU917516:OMU917517 OWQ917516:OWQ917517 PGM917516:PGM917517 PQI917516:PQI917517 QAE917516:QAE917517 QKA917516:QKA917517 QTW917516:QTW917517 RDS917516:RDS917517 RNO917516:RNO917517 RXK917516:RXK917517 SHG917516:SHG917517 SRC917516:SRC917517 TAY917516:TAY917517 TKU917516:TKU917517 TUQ917516:TUQ917517 UEM917516:UEM917517 UOI917516:UOI917517 UYE917516:UYE917517 VIA917516:VIA917517 VRW917516:VRW917517 WBS917516:WBS917517 WLO917516:WLO917517 WVK917516:WVK917517 C983052:C983053 IY983052:IY983053 SU983052:SU983053 ACQ983052:ACQ983053 AMM983052:AMM983053 AWI983052:AWI983053 BGE983052:BGE983053 BQA983052:BQA983053 BZW983052:BZW983053 CJS983052:CJS983053 CTO983052:CTO983053 DDK983052:DDK983053 DNG983052:DNG983053 DXC983052:DXC983053 EGY983052:EGY983053 EQU983052:EQU983053 FAQ983052:FAQ983053 FKM983052:FKM983053 FUI983052:FUI983053 GEE983052:GEE983053 GOA983052:GOA983053 GXW983052:GXW983053 HHS983052:HHS983053 HRO983052:HRO983053 IBK983052:IBK983053 ILG983052:ILG983053 IVC983052:IVC983053 JEY983052:JEY983053 JOU983052:JOU983053 JYQ983052:JYQ983053 KIM983052:KIM983053 KSI983052:KSI983053 LCE983052:LCE983053 LMA983052:LMA983053 LVW983052:LVW983053 MFS983052:MFS983053 MPO983052:MPO983053 MZK983052:MZK983053 NJG983052:NJG983053 NTC983052:NTC983053 OCY983052:OCY983053 OMU983052:OMU983053 OWQ983052:OWQ983053 PGM983052:PGM983053 PQI983052:PQI983053 QAE983052:QAE983053 QKA983052:QKA983053 QTW983052:QTW983053 RDS983052:RDS983053 RNO983052:RNO983053 RXK983052:RXK983053 SHG983052:SHG983053 SRC983052:SRC983053 TAY983052:TAY983053 TKU983052:TKU983053 TUQ983052:TUQ983053 UEM983052:UEM983053 UOI983052:UOI983053 UYE983052:UYE983053 VIA983052:VIA983053 VRW983052:VRW983053 WBS983052:WBS983053 WLO983052:WLO983053">
@@ -9714,8 +10203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10363,16 +10852,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10387,10 +10876,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -10402,10 +10891,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10426,17 +10915,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10481,25 +10970,35 @@
       <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="121"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="B10" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41887</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="18" t="s">
         <v>5</v>
       </c>
@@ -10508,13 +11007,13 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10571,19 +11070,19 @@
       <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="39" t="s">
         <v>16</v>
       </c>
@@ -10592,21 +11091,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10618,8 +11117,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10631,8 +11130,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10644,8 +11143,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10681,44 +11180,44 @@
       <c r="A24" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="124"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="144"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="127"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10748,19 +11247,19 @@
       <c r="A29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="F29" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="51" t="s">
         <v>16</v>
       </c>
@@ -10769,13 +11268,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="151"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10806,41 +11305,41 @@
       <c r="A33" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10891,15 +11390,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10913,117 +11409,151 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F11:F13">
+    <cfRule type="cellIs" dxfId="53" priority="34" stopIfTrue="1" operator="equal">
       <formula>"On-hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="35" stopIfTrue="1" operator="equal">
       <formula>"On-going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="23" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
+  <conditionalFormatting sqref="I11:I13">
+    <cfRule type="containsText" dxfId="50" priority="28" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="29" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="30" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="31" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="32" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="33" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I21">
-    <cfRule type="containsText" dxfId="17" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="44" priority="22" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="43" priority="23" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="42" priority="24" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="41" priority="25" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="40" priority="26" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="39" priority="27" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+    <cfRule type="containsText" dxfId="38" priority="16" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+    <cfRule type="containsText" dxfId="37" priority="17" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
       <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+    <cfRule type="containsText" dxfId="36" priority="18" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
       <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+    <cfRule type="containsText" dxfId="35" priority="19" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
       <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+    <cfRule type="containsText" dxfId="34" priority="20" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
       <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+    <cfRule type="containsText" dxfId="33" priority="21" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
       <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="32" priority="10" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="11" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="12" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="13" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="14" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="15" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"On-hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"On-going"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
     <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 WVN983050:WVN983053">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983050:WVN983053 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 F10:F13">
       <formula1>"On-hold, On-going, Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983050:WVK983053 IY10:IY13 SU10:SU13 ACQ10:ACQ13 AMM10:AMM13 AWI10:AWI13 BGE10:BGE13 BQA10:BQA13 BZW10:BZW13 CJS10:CJS13 CTO10:CTO13 DDK10:DDK13 DNG10:DNG13 DXC10:DXC13 EGY10:EGY13 EQU10:EQU13 FAQ10:FAQ13 FKM10:FKM13 FUI10:FUI13 GEE10:GEE13 GOA10:GOA13 GXW10:GXW13 HHS10:HHS13 HRO10:HRO13 IBK10:IBK13 ILG10:ILG13 IVC10:IVC13 JEY10:JEY13 JOU10:JOU13 JYQ10:JYQ13 KIM10:KIM13 KSI10:KSI13 LCE10:LCE13 LMA10:LMA13 LVW10:LVW13 MFS10:MFS13 MPO10:MPO13 MZK10:MZK13 NJG10:NJG13 NTC10:NTC13 OCY10:OCY13 OMU10:OMU13 OWQ10:OWQ13 PGM10:PGM13 PQI10:PQI13 QAE10:QAE13 QKA10:QKA13 QTW10:QTW13 RDS10:RDS13 RNO10:RNO13 RXK10:RXK13 SHG10:SHG13 SRC10:SRC13 TAY10:TAY13 TKU10:TKU13 TUQ10:TUQ13 UEM10:UEM13 UOI10:UOI13 UYE10:UYE13 VIA10:VIA13 VRW10:VRW13 WBS10:WBS13 WLO10:WLO13 WVK10:WVK13 C65546:C65549 IY65546:IY65549 SU65546:SU65549 ACQ65546:ACQ65549 AMM65546:AMM65549 AWI65546:AWI65549 BGE65546:BGE65549 BQA65546:BQA65549 BZW65546:BZW65549 CJS65546:CJS65549 CTO65546:CTO65549 DDK65546:DDK65549 DNG65546:DNG65549 DXC65546:DXC65549 EGY65546:EGY65549 EQU65546:EQU65549 FAQ65546:FAQ65549 FKM65546:FKM65549 FUI65546:FUI65549 GEE65546:GEE65549 GOA65546:GOA65549 GXW65546:GXW65549 HHS65546:HHS65549 HRO65546:HRO65549 IBK65546:IBK65549 ILG65546:ILG65549 IVC65546:IVC65549 JEY65546:JEY65549 JOU65546:JOU65549 JYQ65546:JYQ65549 KIM65546:KIM65549 KSI65546:KSI65549 LCE65546:LCE65549 LMA65546:LMA65549 LVW65546:LVW65549 MFS65546:MFS65549 MPO65546:MPO65549 MZK65546:MZK65549 NJG65546:NJG65549 NTC65546:NTC65549 OCY65546:OCY65549 OMU65546:OMU65549 OWQ65546:OWQ65549 PGM65546:PGM65549 PQI65546:PQI65549 QAE65546:QAE65549 QKA65546:QKA65549 QTW65546:QTW65549 RDS65546:RDS65549 RNO65546:RNO65549 RXK65546:RXK65549 SHG65546:SHG65549 SRC65546:SRC65549 TAY65546:TAY65549 TKU65546:TKU65549 TUQ65546:TUQ65549 UEM65546:UEM65549 UOI65546:UOI65549 UYE65546:UYE65549 VIA65546:VIA65549 VRW65546:VRW65549 WBS65546:WBS65549 WLO65546:WLO65549 WVK65546:WVK65549 C131082:C131085 IY131082:IY131085 SU131082:SU131085 ACQ131082:ACQ131085 AMM131082:AMM131085 AWI131082:AWI131085 BGE131082:BGE131085 BQA131082:BQA131085 BZW131082:BZW131085 CJS131082:CJS131085 CTO131082:CTO131085 DDK131082:DDK131085 DNG131082:DNG131085 DXC131082:DXC131085 EGY131082:EGY131085 EQU131082:EQU131085 FAQ131082:FAQ131085 FKM131082:FKM131085 FUI131082:FUI131085 GEE131082:GEE131085 GOA131082:GOA131085 GXW131082:GXW131085 HHS131082:HHS131085 HRO131082:HRO131085 IBK131082:IBK131085 ILG131082:ILG131085 IVC131082:IVC131085 JEY131082:JEY131085 JOU131082:JOU131085 JYQ131082:JYQ131085 KIM131082:KIM131085 KSI131082:KSI131085 LCE131082:LCE131085 LMA131082:LMA131085 LVW131082:LVW131085 MFS131082:MFS131085 MPO131082:MPO131085 MZK131082:MZK131085 NJG131082:NJG131085 NTC131082:NTC131085 OCY131082:OCY131085 OMU131082:OMU131085 OWQ131082:OWQ131085 PGM131082:PGM131085 PQI131082:PQI131085 QAE131082:QAE131085 QKA131082:QKA131085 QTW131082:QTW131085 RDS131082:RDS131085 RNO131082:RNO131085 RXK131082:RXK131085 SHG131082:SHG131085 SRC131082:SRC131085 TAY131082:TAY131085 TKU131082:TKU131085 TUQ131082:TUQ131085 UEM131082:UEM131085 UOI131082:UOI131085 UYE131082:UYE131085 VIA131082:VIA131085 VRW131082:VRW131085 WBS131082:WBS131085 WLO131082:WLO131085 WVK131082:WVK131085 C196618:C196621 IY196618:IY196621 SU196618:SU196621 ACQ196618:ACQ196621 AMM196618:AMM196621 AWI196618:AWI196621 BGE196618:BGE196621 BQA196618:BQA196621 BZW196618:BZW196621 CJS196618:CJS196621 CTO196618:CTO196621 DDK196618:DDK196621 DNG196618:DNG196621 DXC196618:DXC196621 EGY196618:EGY196621 EQU196618:EQU196621 FAQ196618:FAQ196621 FKM196618:FKM196621 FUI196618:FUI196621 GEE196618:GEE196621 GOA196618:GOA196621 GXW196618:GXW196621 HHS196618:HHS196621 HRO196618:HRO196621 IBK196618:IBK196621 ILG196618:ILG196621 IVC196618:IVC196621 JEY196618:JEY196621 JOU196618:JOU196621 JYQ196618:JYQ196621 KIM196618:KIM196621 KSI196618:KSI196621 LCE196618:LCE196621 LMA196618:LMA196621 LVW196618:LVW196621 MFS196618:MFS196621 MPO196618:MPO196621 MZK196618:MZK196621 NJG196618:NJG196621 NTC196618:NTC196621 OCY196618:OCY196621 OMU196618:OMU196621 OWQ196618:OWQ196621 PGM196618:PGM196621 PQI196618:PQI196621 QAE196618:QAE196621 QKA196618:QKA196621 QTW196618:QTW196621 RDS196618:RDS196621 RNO196618:RNO196621 RXK196618:RXK196621 SHG196618:SHG196621 SRC196618:SRC196621 TAY196618:TAY196621 TKU196618:TKU196621 TUQ196618:TUQ196621 UEM196618:UEM196621 UOI196618:UOI196621 UYE196618:UYE196621 VIA196618:VIA196621 VRW196618:VRW196621 WBS196618:WBS196621 WLO196618:WLO196621 WVK196618:WVK196621 C262154:C262157 IY262154:IY262157 SU262154:SU262157 ACQ262154:ACQ262157 AMM262154:AMM262157 AWI262154:AWI262157 BGE262154:BGE262157 BQA262154:BQA262157 BZW262154:BZW262157 CJS262154:CJS262157 CTO262154:CTO262157 DDK262154:DDK262157 DNG262154:DNG262157 DXC262154:DXC262157 EGY262154:EGY262157 EQU262154:EQU262157 FAQ262154:FAQ262157 FKM262154:FKM262157 FUI262154:FUI262157 GEE262154:GEE262157 GOA262154:GOA262157 GXW262154:GXW262157 HHS262154:HHS262157 HRO262154:HRO262157 IBK262154:IBK262157 ILG262154:ILG262157 IVC262154:IVC262157 JEY262154:JEY262157 JOU262154:JOU262157 JYQ262154:JYQ262157 KIM262154:KIM262157 KSI262154:KSI262157 LCE262154:LCE262157 LMA262154:LMA262157 LVW262154:LVW262157 MFS262154:MFS262157 MPO262154:MPO262157 MZK262154:MZK262157 NJG262154:NJG262157 NTC262154:NTC262157 OCY262154:OCY262157 OMU262154:OMU262157 OWQ262154:OWQ262157 PGM262154:PGM262157 PQI262154:PQI262157 QAE262154:QAE262157 QKA262154:QKA262157 QTW262154:QTW262157 RDS262154:RDS262157 RNO262154:RNO262157 RXK262154:RXK262157 SHG262154:SHG262157 SRC262154:SRC262157 TAY262154:TAY262157 TKU262154:TKU262157 TUQ262154:TUQ262157 UEM262154:UEM262157 UOI262154:UOI262157 UYE262154:UYE262157 VIA262154:VIA262157 VRW262154:VRW262157 WBS262154:WBS262157 WLO262154:WLO262157 WVK262154:WVK262157 C327690:C327693 IY327690:IY327693 SU327690:SU327693 ACQ327690:ACQ327693 AMM327690:AMM327693 AWI327690:AWI327693 BGE327690:BGE327693 BQA327690:BQA327693 BZW327690:BZW327693 CJS327690:CJS327693 CTO327690:CTO327693 DDK327690:DDK327693 DNG327690:DNG327693 DXC327690:DXC327693 EGY327690:EGY327693 EQU327690:EQU327693 FAQ327690:FAQ327693 FKM327690:FKM327693 FUI327690:FUI327693 GEE327690:GEE327693 GOA327690:GOA327693 GXW327690:GXW327693 HHS327690:HHS327693 HRO327690:HRO327693 IBK327690:IBK327693 ILG327690:ILG327693 IVC327690:IVC327693 JEY327690:JEY327693 JOU327690:JOU327693 JYQ327690:JYQ327693 KIM327690:KIM327693 KSI327690:KSI327693 LCE327690:LCE327693 LMA327690:LMA327693 LVW327690:LVW327693 MFS327690:MFS327693 MPO327690:MPO327693 MZK327690:MZK327693 NJG327690:NJG327693 NTC327690:NTC327693 OCY327690:OCY327693 OMU327690:OMU327693 OWQ327690:OWQ327693 PGM327690:PGM327693 PQI327690:PQI327693 QAE327690:QAE327693 QKA327690:QKA327693 QTW327690:QTW327693 RDS327690:RDS327693 RNO327690:RNO327693 RXK327690:RXK327693 SHG327690:SHG327693 SRC327690:SRC327693 TAY327690:TAY327693 TKU327690:TKU327693 TUQ327690:TUQ327693 UEM327690:UEM327693 UOI327690:UOI327693 UYE327690:UYE327693 VIA327690:VIA327693 VRW327690:VRW327693 WBS327690:WBS327693 WLO327690:WLO327693 WVK327690:WVK327693 C393226:C393229 IY393226:IY393229 SU393226:SU393229 ACQ393226:ACQ393229 AMM393226:AMM393229 AWI393226:AWI393229 BGE393226:BGE393229 BQA393226:BQA393229 BZW393226:BZW393229 CJS393226:CJS393229 CTO393226:CTO393229 DDK393226:DDK393229 DNG393226:DNG393229 DXC393226:DXC393229 EGY393226:EGY393229 EQU393226:EQU393229 FAQ393226:FAQ393229 FKM393226:FKM393229 FUI393226:FUI393229 GEE393226:GEE393229 GOA393226:GOA393229 GXW393226:GXW393229 HHS393226:HHS393229 HRO393226:HRO393229 IBK393226:IBK393229 ILG393226:ILG393229 IVC393226:IVC393229 JEY393226:JEY393229 JOU393226:JOU393229 JYQ393226:JYQ393229 KIM393226:KIM393229 KSI393226:KSI393229 LCE393226:LCE393229 LMA393226:LMA393229 LVW393226:LVW393229 MFS393226:MFS393229 MPO393226:MPO393229 MZK393226:MZK393229 NJG393226:NJG393229 NTC393226:NTC393229 OCY393226:OCY393229 OMU393226:OMU393229 OWQ393226:OWQ393229 PGM393226:PGM393229 PQI393226:PQI393229 QAE393226:QAE393229 QKA393226:QKA393229 QTW393226:QTW393229 RDS393226:RDS393229 RNO393226:RNO393229 RXK393226:RXK393229 SHG393226:SHG393229 SRC393226:SRC393229 TAY393226:TAY393229 TKU393226:TKU393229 TUQ393226:TUQ393229 UEM393226:UEM393229 UOI393226:UOI393229 UYE393226:UYE393229 VIA393226:VIA393229 VRW393226:VRW393229 WBS393226:WBS393229 WLO393226:WLO393229 WVK393226:WVK393229 C458762:C458765 IY458762:IY458765 SU458762:SU458765 ACQ458762:ACQ458765 AMM458762:AMM458765 AWI458762:AWI458765 BGE458762:BGE458765 BQA458762:BQA458765 BZW458762:BZW458765 CJS458762:CJS458765 CTO458762:CTO458765 DDK458762:DDK458765 DNG458762:DNG458765 DXC458762:DXC458765 EGY458762:EGY458765 EQU458762:EQU458765 FAQ458762:FAQ458765 FKM458762:FKM458765 FUI458762:FUI458765 GEE458762:GEE458765 GOA458762:GOA458765 GXW458762:GXW458765 HHS458762:HHS458765 HRO458762:HRO458765 IBK458762:IBK458765 ILG458762:ILG458765 IVC458762:IVC458765 JEY458762:JEY458765 JOU458762:JOU458765 JYQ458762:JYQ458765 KIM458762:KIM458765 KSI458762:KSI458765 LCE458762:LCE458765 LMA458762:LMA458765 LVW458762:LVW458765 MFS458762:MFS458765 MPO458762:MPO458765 MZK458762:MZK458765 NJG458762:NJG458765 NTC458762:NTC458765 OCY458762:OCY458765 OMU458762:OMU458765 OWQ458762:OWQ458765 PGM458762:PGM458765 PQI458762:PQI458765 QAE458762:QAE458765 QKA458762:QKA458765 QTW458762:QTW458765 RDS458762:RDS458765 RNO458762:RNO458765 RXK458762:RXK458765 SHG458762:SHG458765 SRC458762:SRC458765 TAY458762:TAY458765 TKU458762:TKU458765 TUQ458762:TUQ458765 UEM458762:UEM458765 UOI458762:UOI458765 UYE458762:UYE458765 VIA458762:VIA458765 VRW458762:VRW458765 WBS458762:WBS458765 WLO458762:WLO458765 WVK458762:WVK458765 C524298:C524301 IY524298:IY524301 SU524298:SU524301 ACQ524298:ACQ524301 AMM524298:AMM524301 AWI524298:AWI524301 BGE524298:BGE524301 BQA524298:BQA524301 BZW524298:BZW524301 CJS524298:CJS524301 CTO524298:CTO524301 DDK524298:DDK524301 DNG524298:DNG524301 DXC524298:DXC524301 EGY524298:EGY524301 EQU524298:EQU524301 FAQ524298:FAQ524301 FKM524298:FKM524301 FUI524298:FUI524301 GEE524298:GEE524301 GOA524298:GOA524301 GXW524298:GXW524301 HHS524298:HHS524301 HRO524298:HRO524301 IBK524298:IBK524301 ILG524298:ILG524301 IVC524298:IVC524301 JEY524298:JEY524301 JOU524298:JOU524301 JYQ524298:JYQ524301 KIM524298:KIM524301 KSI524298:KSI524301 LCE524298:LCE524301 LMA524298:LMA524301 LVW524298:LVW524301 MFS524298:MFS524301 MPO524298:MPO524301 MZK524298:MZK524301 NJG524298:NJG524301 NTC524298:NTC524301 OCY524298:OCY524301 OMU524298:OMU524301 OWQ524298:OWQ524301 PGM524298:PGM524301 PQI524298:PQI524301 QAE524298:QAE524301 QKA524298:QKA524301 QTW524298:QTW524301 RDS524298:RDS524301 RNO524298:RNO524301 RXK524298:RXK524301 SHG524298:SHG524301 SRC524298:SRC524301 TAY524298:TAY524301 TKU524298:TKU524301 TUQ524298:TUQ524301 UEM524298:UEM524301 UOI524298:UOI524301 UYE524298:UYE524301 VIA524298:VIA524301 VRW524298:VRW524301 WBS524298:WBS524301 WLO524298:WLO524301 WVK524298:WVK524301 C589834:C589837 IY589834:IY589837 SU589834:SU589837 ACQ589834:ACQ589837 AMM589834:AMM589837 AWI589834:AWI589837 BGE589834:BGE589837 BQA589834:BQA589837 BZW589834:BZW589837 CJS589834:CJS589837 CTO589834:CTO589837 DDK589834:DDK589837 DNG589834:DNG589837 DXC589834:DXC589837 EGY589834:EGY589837 EQU589834:EQU589837 FAQ589834:FAQ589837 FKM589834:FKM589837 FUI589834:FUI589837 GEE589834:GEE589837 GOA589834:GOA589837 GXW589834:GXW589837 HHS589834:HHS589837 HRO589834:HRO589837 IBK589834:IBK589837 ILG589834:ILG589837 IVC589834:IVC589837 JEY589834:JEY589837 JOU589834:JOU589837 JYQ589834:JYQ589837 KIM589834:KIM589837 KSI589834:KSI589837 LCE589834:LCE589837 LMA589834:LMA589837 LVW589834:LVW589837 MFS589834:MFS589837 MPO589834:MPO589837 MZK589834:MZK589837 NJG589834:NJG589837 NTC589834:NTC589837 OCY589834:OCY589837 OMU589834:OMU589837 OWQ589834:OWQ589837 PGM589834:PGM589837 PQI589834:PQI589837 QAE589834:QAE589837 QKA589834:QKA589837 QTW589834:QTW589837 RDS589834:RDS589837 RNO589834:RNO589837 RXK589834:RXK589837 SHG589834:SHG589837 SRC589834:SRC589837 TAY589834:TAY589837 TKU589834:TKU589837 TUQ589834:TUQ589837 UEM589834:UEM589837 UOI589834:UOI589837 UYE589834:UYE589837 VIA589834:VIA589837 VRW589834:VRW589837 WBS589834:WBS589837 WLO589834:WLO589837 WVK589834:WVK589837 C655370:C655373 IY655370:IY655373 SU655370:SU655373 ACQ655370:ACQ655373 AMM655370:AMM655373 AWI655370:AWI655373 BGE655370:BGE655373 BQA655370:BQA655373 BZW655370:BZW655373 CJS655370:CJS655373 CTO655370:CTO655373 DDK655370:DDK655373 DNG655370:DNG655373 DXC655370:DXC655373 EGY655370:EGY655373 EQU655370:EQU655373 FAQ655370:FAQ655373 FKM655370:FKM655373 FUI655370:FUI655373 GEE655370:GEE655373 GOA655370:GOA655373 GXW655370:GXW655373 HHS655370:HHS655373 HRO655370:HRO655373 IBK655370:IBK655373 ILG655370:ILG655373 IVC655370:IVC655373 JEY655370:JEY655373 JOU655370:JOU655373 JYQ655370:JYQ655373 KIM655370:KIM655373 KSI655370:KSI655373 LCE655370:LCE655373 LMA655370:LMA655373 LVW655370:LVW655373 MFS655370:MFS655373 MPO655370:MPO655373 MZK655370:MZK655373 NJG655370:NJG655373 NTC655370:NTC655373 OCY655370:OCY655373 OMU655370:OMU655373 OWQ655370:OWQ655373 PGM655370:PGM655373 PQI655370:PQI655373 QAE655370:QAE655373 QKA655370:QKA655373 QTW655370:QTW655373 RDS655370:RDS655373 RNO655370:RNO655373 RXK655370:RXK655373 SHG655370:SHG655373 SRC655370:SRC655373 TAY655370:TAY655373 TKU655370:TKU655373 TUQ655370:TUQ655373 UEM655370:UEM655373 UOI655370:UOI655373 UYE655370:UYE655373 VIA655370:VIA655373 VRW655370:VRW655373 WBS655370:WBS655373 WLO655370:WLO655373 WVK655370:WVK655373 C720906:C720909 IY720906:IY720909 SU720906:SU720909 ACQ720906:ACQ720909 AMM720906:AMM720909 AWI720906:AWI720909 BGE720906:BGE720909 BQA720906:BQA720909 BZW720906:BZW720909 CJS720906:CJS720909 CTO720906:CTO720909 DDK720906:DDK720909 DNG720906:DNG720909 DXC720906:DXC720909 EGY720906:EGY720909 EQU720906:EQU720909 FAQ720906:FAQ720909 FKM720906:FKM720909 FUI720906:FUI720909 GEE720906:GEE720909 GOA720906:GOA720909 GXW720906:GXW720909 HHS720906:HHS720909 HRO720906:HRO720909 IBK720906:IBK720909 ILG720906:ILG720909 IVC720906:IVC720909 JEY720906:JEY720909 JOU720906:JOU720909 JYQ720906:JYQ720909 KIM720906:KIM720909 KSI720906:KSI720909 LCE720906:LCE720909 LMA720906:LMA720909 LVW720906:LVW720909 MFS720906:MFS720909 MPO720906:MPO720909 MZK720906:MZK720909 NJG720906:NJG720909 NTC720906:NTC720909 OCY720906:OCY720909 OMU720906:OMU720909 OWQ720906:OWQ720909 PGM720906:PGM720909 PQI720906:PQI720909 QAE720906:QAE720909 QKA720906:QKA720909 QTW720906:QTW720909 RDS720906:RDS720909 RNO720906:RNO720909 RXK720906:RXK720909 SHG720906:SHG720909 SRC720906:SRC720909 TAY720906:TAY720909 TKU720906:TKU720909 TUQ720906:TUQ720909 UEM720906:UEM720909 UOI720906:UOI720909 UYE720906:UYE720909 VIA720906:VIA720909 VRW720906:VRW720909 WBS720906:WBS720909 WLO720906:WLO720909 WVK720906:WVK720909 C786442:C786445 IY786442:IY786445 SU786442:SU786445 ACQ786442:ACQ786445 AMM786442:AMM786445 AWI786442:AWI786445 BGE786442:BGE786445 BQA786442:BQA786445 BZW786442:BZW786445 CJS786442:CJS786445 CTO786442:CTO786445 DDK786442:DDK786445 DNG786442:DNG786445 DXC786442:DXC786445 EGY786442:EGY786445 EQU786442:EQU786445 FAQ786442:FAQ786445 FKM786442:FKM786445 FUI786442:FUI786445 GEE786442:GEE786445 GOA786442:GOA786445 GXW786442:GXW786445 HHS786442:HHS786445 HRO786442:HRO786445 IBK786442:IBK786445 ILG786442:ILG786445 IVC786442:IVC786445 JEY786442:JEY786445 JOU786442:JOU786445 JYQ786442:JYQ786445 KIM786442:KIM786445 KSI786442:KSI786445 LCE786442:LCE786445 LMA786442:LMA786445 LVW786442:LVW786445 MFS786442:MFS786445 MPO786442:MPO786445 MZK786442:MZK786445 NJG786442:NJG786445 NTC786442:NTC786445 OCY786442:OCY786445 OMU786442:OMU786445 OWQ786442:OWQ786445 PGM786442:PGM786445 PQI786442:PQI786445 QAE786442:QAE786445 QKA786442:QKA786445 QTW786442:QTW786445 RDS786442:RDS786445 RNO786442:RNO786445 RXK786442:RXK786445 SHG786442:SHG786445 SRC786442:SRC786445 TAY786442:TAY786445 TKU786442:TKU786445 TUQ786442:TUQ786445 UEM786442:UEM786445 UOI786442:UOI786445 UYE786442:UYE786445 VIA786442:VIA786445 VRW786442:VRW786445 WBS786442:WBS786445 WLO786442:WLO786445 WVK786442:WVK786445 C851978:C851981 IY851978:IY851981 SU851978:SU851981 ACQ851978:ACQ851981 AMM851978:AMM851981 AWI851978:AWI851981 BGE851978:BGE851981 BQA851978:BQA851981 BZW851978:BZW851981 CJS851978:CJS851981 CTO851978:CTO851981 DDK851978:DDK851981 DNG851978:DNG851981 DXC851978:DXC851981 EGY851978:EGY851981 EQU851978:EQU851981 FAQ851978:FAQ851981 FKM851978:FKM851981 FUI851978:FUI851981 GEE851978:GEE851981 GOA851978:GOA851981 GXW851978:GXW851981 HHS851978:HHS851981 HRO851978:HRO851981 IBK851978:IBK851981 ILG851978:ILG851981 IVC851978:IVC851981 JEY851978:JEY851981 JOU851978:JOU851981 JYQ851978:JYQ851981 KIM851978:KIM851981 KSI851978:KSI851981 LCE851978:LCE851981 LMA851978:LMA851981 LVW851978:LVW851981 MFS851978:MFS851981 MPO851978:MPO851981 MZK851978:MZK851981 NJG851978:NJG851981 NTC851978:NTC851981 OCY851978:OCY851981 OMU851978:OMU851981 OWQ851978:OWQ851981 PGM851978:PGM851981 PQI851978:PQI851981 QAE851978:QAE851981 QKA851978:QKA851981 QTW851978:QTW851981 RDS851978:RDS851981 RNO851978:RNO851981 RXK851978:RXK851981 SHG851978:SHG851981 SRC851978:SRC851981 TAY851978:TAY851981 TKU851978:TKU851981 TUQ851978:TUQ851981 UEM851978:UEM851981 UOI851978:UOI851981 UYE851978:UYE851981 VIA851978:VIA851981 VRW851978:VRW851981 WBS851978:WBS851981 WLO851978:WLO851981 WVK851978:WVK851981 C917514:C917517 IY917514:IY917517 SU917514:SU917517 ACQ917514:ACQ917517 AMM917514:AMM917517 AWI917514:AWI917517 BGE917514:BGE917517 BQA917514:BQA917517 BZW917514:BZW917517 CJS917514:CJS917517 CTO917514:CTO917517 DDK917514:DDK917517 DNG917514:DNG917517 DXC917514:DXC917517 EGY917514:EGY917517 EQU917514:EQU917517 FAQ917514:FAQ917517 FKM917514:FKM917517 FUI917514:FUI917517 GEE917514:GEE917517 GOA917514:GOA917517 GXW917514:GXW917517 HHS917514:HHS917517 HRO917514:HRO917517 IBK917514:IBK917517 ILG917514:ILG917517 IVC917514:IVC917517 JEY917514:JEY917517 JOU917514:JOU917517 JYQ917514:JYQ917517 KIM917514:KIM917517 KSI917514:KSI917517 LCE917514:LCE917517 LMA917514:LMA917517 LVW917514:LVW917517 MFS917514:MFS917517 MPO917514:MPO917517 MZK917514:MZK917517 NJG917514:NJG917517 NTC917514:NTC917517 OCY917514:OCY917517 OMU917514:OMU917517 OWQ917514:OWQ917517 PGM917514:PGM917517 PQI917514:PQI917517 QAE917514:QAE917517 QKA917514:QKA917517 QTW917514:QTW917517 RDS917514:RDS917517 RNO917514:RNO917517 RXK917514:RXK917517 SHG917514:SHG917517 SRC917514:SRC917517 TAY917514:TAY917517 TKU917514:TKU917517 TUQ917514:TUQ917517 UEM917514:UEM917517 UOI917514:UOI917517 UYE917514:UYE917517 VIA917514:VIA917517 VRW917514:VRW917517 WBS917514:WBS917517 WLO917514:WLO917517 WVK917514:WVK917517 C983050:C983053 IY983050:IY983053 SU983050:SU983053 ACQ983050:ACQ983053 AMM983050:AMM983053 AWI983050:AWI983053 BGE983050:BGE983053 BQA983050:BQA983053 BZW983050:BZW983053 CJS983050:CJS983053 CTO983050:CTO983053 DDK983050:DDK983053 DNG983050:DNG983053 DXC983050:DXC983053 EGY983050:EGY983053 EQU983050:EQU983053 FAQ983050:FAQ983053 FKM983050:FKM983053 FUI983050:FUI983053 GEE983050:GEE983053 GOA983050:GOA983053 GXW983050:GXW983053 HHS983050:HHS983053 HRO983050:HRO983053 IBK983050:IBK983053 ILG983050:ILG983053 IVC983050:IVC983053 JEY983050:JEY983053 JOU983050:JOU983053 JYQ983050:JYQ983053 KIM983050:KIM983053 KSI983050:KSI983053 LCE983050:LCE983053 LMA983050:LMA983053 LVW983050:LVW983053 MFS983050:MFS983053 MPO983050:MPO983053 MZK983050:MZK983053 NJG983050:NJG983053 NTC983050:NTC983053 OCY983050:OCY983053 OMU983050:OMU983053 OWQ983050:OWQ983053 PGM983050:PGM983053 PQI983050:PQI983053 QAE983050:QAE983053 QKA983050:QKA983053 QTW983050:QTW983053 RDS983050:RDS983053 RNO983050:RNO983053 RXK983050:RXK983053 SHG983050:SHG983053 SRC983050:SRC983053 TAY983050:TAY983053 TKU983050:TKU983053 TUQ983050:TUQ983053 UEM983050:UEM983053 UOI983050:UOI983053 UYE983050:UYE983053 VIA983050:VIA983053 VRW983050:VRW983053 WBS983050:WBS983053 WLO983050:WLO983053 C10:C13">
@@ -11037,12 +11567,18 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Team member'!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I17 I10:I13</xm:sqref>
+          <xm:sqref>I17 I11:I13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]Team member'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
